--- a/Template16000-17999.xlsx
+++ b/Template16000-17999.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="1991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1997">
   <si>
     <t>UBND Ủy ban nhân dân xã Bình Minh  tỉnh Quảng Nam</t>
   </si>
@@ -5997,13 +5997,31 @@
   </si>
   <si>
     <t>UBND Ủy ban nhân dân xã Nghĩa Hưng  tỉnh Gia Lai</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Đơn Vị</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>DI ĐỘNG</t>
+  </si>
+  <si>
+    <t>CỐ ĐỊNH</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6023,16 +6041,49 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6040,11 +6091,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6055,8 +6122,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6335,15 +6418,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F2001"/>
+  <dimension ref="A1:K2001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2001"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>16000</v>
       </c>
@@ -6351,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>16001</v>
       </c>
@@ -6363,7 +6466,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>16002</v>
       </c>
@@ -6371,7 +6474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>16003</v>
       </c>
@@ -6382,8 +6485,9 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>16004</v>
       </c>
@@ -6391,7 +6495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16005</v>
       </c>
@@ -6403,7 +6507,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>16006</v>
       </c>
@@ -6411,7 +6515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>16007</v>
       </c>
@@ -6423,7 +6527,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>16008</v>
       </c>
@@ -6431,7 +6535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>16009</v>
       </c>
@@ -6443,7 +6547,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>16010</v>
       </c>
@@ -6451,7 +6555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>16011</v>
       </c>
@@ -6463,7 +6567,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>16012</v>
       </c>
@@ -6471,7 +6575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16013</v>
       </c>
@@ -6483,7 +6587,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16014</v>
       </c>
